--- a/test plan 20180529.xlsx
+++ b/test plan 20180529.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02DTS\05DTS-SC\06测试\DTS_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B607898-D4D1-4F79-906F-546A3D01D263}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6510C1D5-2BF1-4FE9-BC2D-1811B0225CAB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,15 +56,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>工作内容</t>
   </si>
   <si>
     <t>完成比例</t>
-  </si>
-  <si>
-    <t>刘庆林</t>
   </si>
   <si>
     <t>当引用的工作表不是指标库时，不显示“指标库”三个字；“应用”改成“生成报表”，这个没有完成，需要开发</t>
@@ -99,10 +96,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>测试人员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -184,6 +177,18 @@
   </si>
   <si>
     <t>梁</t>
+  </si>
+  <si>
+    <t>验证结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -633,15 +638,15 @@
     <col min="5" max="5" width="19.4140625" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+    <col min="9" max="10" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -650,30 +655,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -682,21 +690,22 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -705,21 +714,22 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -728,44 +738,46 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -774,21 +786,22 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -797,21 +810,22 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -820,21 +834,22 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -843,21 +858,22 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -867,16 +883,17 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -886,16 +903,17 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -904,21 +922,22 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -927,46 +946,48 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -975,21 +996,22 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -998,10 +1020,11 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test plan 20180529.xlsx
+++ b/test plan 20180529.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02DTS\05DTS-SC\06测试\DTS_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6510C1D5-2BF1-4FE9-BC2D-1811B0225CAB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3379115F-3872-4334-A24E-0C3268FF4473}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>工作内容</t>
   </si>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -785,8 +785,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
@@ -809,8 +809,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
@@ -833,8 +833,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
-        <v>30</v>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
@@ -1019,9 +1019,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
         <v>31</v>

--- a/test plan 20180529.xlsx
+++ b/test plan 20180529.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02DTS\05DTS-SC\06测试\DTS_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3379115F-3872-4334-A24E-0C3268FF4473}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD3866F5-8092-4B72-B87A-6A19557C7E6D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>工作内容</t>
   </si>
@@ -187,8 +187,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -625,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,7 +713,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
@@ -832,7 +831,9 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
@@ -856,7 +857,9 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
@@ -920,7 +923,9 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="7" t="s">
         <v>28</v>
       </c>
